--- a/02 Excel/Tio Cash Master 0010 Wildcard.xlsx
+++ b/02 Excel/Tio Cash Master 0010 Wildcard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cash_\Desktop\Tio Cash Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F410B041-0253-42C0-AE9A-3D972B568D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442C7B58-A433-47F9-B53C-3BD38D977FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" activeTab="1" xr2:uid="{90D01439-A4A9-4EDA-83D3-1B8039DF061E}"/>
+    <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13248" activeTab="4" xr2:uid="{90D01439-A4A9-4EDA-83D3-1B8039DF061E}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AF3A1B-A3C0-46D5-89A6-0746E431BBF3}">
   <dimension ref="A3:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2032,7 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8F23A0-CFB6-4326-AB5E-B512DFC184B9}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2082,9 +2082,7 @@
       <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="2">
-        <v>9</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
